--- a/app/Licenciatura_em_Quimica_Marinha.xlsx
+++ b/app/Licenciatura_em_Quimica_Marinha.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Sofia Samuel</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>Cidalia Odete Samuel Antonio</t>
   </si>
   <si>
-    <t>Distrito de Morrumbala</t>
-  </si>
-  <si>
     <t>041301626649B</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>Malosa Mudza</t>
   </si>
   <si>
-    <t>Distrito de Guro</t>
-  </si>
-  <si>
     <t>060401574539B</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>Lucia Banco Mbobo</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -368,9 +356,6 @@
     <t>Salma Zefanias Sitoe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101322351S</t>
   </si>
   <si>
@@ -392,9 +377,6 @@
     <t>Lidia Luis M. Nicoadala</t>
   </si>
   <si>
-    <t>Distrito de Sussundenga</t>
-  </si>
-  <si>
     <t>060900823534C</t>
   </si>
   <si>
@@ -416,9 +398,6 @@
     <t>Judite Ericha Sadozua</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>060701314716A</t>
   </si>
   <si>
@@ -443,9 +422,6 @@
     <t xml:space="preserve">Alzira M. Da Silva </t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -467,9 +443,6 @@
     <t>Aida Tianhane Siquice Macuacua</t>
   </si>
   <si>
-    <t>Distrito de Mabote</t>
-  </si>
-  <si>
     <t>080800994250N</t>
   </si>
   <si>
@@ -494,9 +467,6 @@
     <t>Teresa Changane</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090104339981A</t>
   </si>
   <si>
@@ -545,9 +515,6 @@
     <t>Ana AntÓnio Muandula</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100723628F</t>
   </si>
   <si>
@@ -617,9 +584,6 @@
     <t>Ines Julio Paulino</t>
   </si>
   <si>
-    <t>Distrito de Namacurra</t>
-  </si>
-  <si>
     <t>041100522445J</t>
   </si>
   <si>
@@ -644,9 +608,6 @@
     <t>Maria Amalia M. Ventura Jequecene</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>040100196817C</t>
   </si>
   <si>
@@ -668,9 +629,6 @@
     <t>Lucia Paulo</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080101130946I</t>
   </si>
   <si>
@@ -735,9 +693,6 @@
   </si>
   <si>
     <t>Arlinda Chongo</t>
-  </si>
-  <si>
-    <t>Distrito de Chókwé</t>
   </si>
   <si>
     <t>090601605852Q</t>
@@ -2174,7 +2129,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2190,7 +2145,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2206,7 +2161,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2222,7 +2177,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2238,7 +2193,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2253,9 +2208,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2263,7 +2216,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2274,7 +2227,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2283,7 +2236,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2295,7 +2248,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2303,7 +2256,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2399,7 +2352,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2442,7 +2395,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2769,7 +2722,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2785,7 +2738,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2801,7 +2754,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2817,7 +2770,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2833,7 +2786,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2848,9 +2801,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2858,7 +2809,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2869,7 +2820,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2878,7 +2829,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2890,7 +2841,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2994,7 +2945,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3037,7 +2988,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3364,7 +3315,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3380,7 +3331,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3396,7 +3347,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3412,7 +3363,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3428,7 +3379,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3443,9 +3394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3453,7 +3402,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3464,7 +3413,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3473,7 +3422,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3485,7 +3434,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3493,7 +3442,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3589,7 +3538,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3632,7 +3581,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3959,7 +3908,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3975,7 +3924,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3991,7 +3940,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4007,7 +3956,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4023,7 +3972,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4038,9 +3987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4048,7 +3995,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4059,7 +4006,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4068,7 +4015,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4080,7 +4027,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4088,7 +4035,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4184,7 +4131,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4227,7 +4174,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4554,7 +4501,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4570,7 +4517,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4586,7 +4533,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4602,7 +4549,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4618,7 +4565,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4633,9 +4580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4643,7 +4588,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4654,7 +4599,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4663,7 +4608,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4675,7 +4620,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4683,7 +4628,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4779,7 +4724,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4822,7 +4767,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5149,7 +5094,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5165,7 +5110,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5181,7 +5126,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5197,7 +5142,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5213,7 +5158,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5228,9 +5173,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5238,7 +5181,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5249,7 +5192,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5258,7 +5201,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5270,7 +5213,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5278,7 +5221,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5374,7 +5317,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5417,7 +5360,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5744,7 +5687,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5760,7 +5703,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5776,7 +5719,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5792,7 +5735,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5808,7 +5751,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5823,9 +5766,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5833,7 +5774,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5844,7 +5785,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5853,7 +5794,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5865,7 +5806,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5873,7 +5814,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5969,7 +5910,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6012,7 +5953,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6339,7 +6280,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6355,7 +6296,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6371,7 +6312,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6387,7 +6328,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6403,7 +6344,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6418,9 +6359,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6428,7 +6367,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6439,7 +6378,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6448,7 +6387,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6460,7 +6399,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6564,7 +6503,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6607,7 +6546,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6934,7 +6873,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6950,7 +6889,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6966,7 +6905,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6982,7 +6921,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6998,7 +6937,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7013,9 +6952,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7023,7 +6960,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7034,7 +6971,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7043,7 +6980,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7055,7 +6992,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7063,7 +7000,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7159,7 +7096,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7202,7 +7139,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7529,7 +7466,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7545,7 +7482,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7561,7 +7498,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7577,7 +7514,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7593,7 +7530,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7608,9 +7545,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7618,7 +7553,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7629,7 +7564,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7638,7 +7573,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7650,7 +7585,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7658,7 +7593,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7754,7 +7689,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7797,7 +7732,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8203,9 +8138,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8213,7 +8146,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8224,7 +8157,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8233,7 +8166,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8245,7 +8178,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8253,7 +8186,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8349,7 +8282,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8392,7 +8325,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8719,7 +8652,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8735,7 +8668,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8751,7 +8684,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8767,7 +8700,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8783,7 +8716,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8798,9 +8731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8808,7 +8739,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8819,7 +8750,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8828,7 +8759,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8840,7 +8771,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8848,7 +8779,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8944,7 +8875,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8987,7 +8918,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9314,7 +9245,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9330,7 +9261,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9346,7 +9277,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9362,7 +9293,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9378,7 +9309,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9393,9 +9324,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9403,7 +9332,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9414,7 +9343,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9423,7 +9352,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9435,7 +9364,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9443,7 +9372,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9539,7 +9468,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9582,7 +9511,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9909,7 +9838,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9925,7 +9854,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9941,7 +9870,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9957,7 +9886,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9973,7 +9902,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9988,9 +9917,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9998,7 +9925,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10009,7 +9936,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10018,7 +9945,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10030,7 +9957,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10038,7 +9965,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10134,7 +10061,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10177,7 +10104,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10504,7 +10431,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10520,7 +10447,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10536,7 +10463,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10552,7 +10479,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10568,7 +10495,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10583,9 +10510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>229</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10593,7 +10518,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10604,7 +10529,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10613,7 +10538,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10625,7 +10550,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10633,7 +10558,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10729,7 +10654,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10772,7 +10697,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11099,7 +11024,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11115,7 +11040,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11131,7 +11056,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11147,7 +11072,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11163,7 +11088,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11178,9 +11103,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11188,7 +11111,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11199,7 +11122,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11208,7 +11131,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11220,7 +11143,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11228,7 +11151,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11324,7 +11247,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11367,7 +11290,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11694,7 +11617,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11710,7 +11633,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11726,7 +11649,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11742,7 +11665,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11758,7 +11681,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11773,9 +11696,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11783,7 +11704,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11794,7 +11715,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11803,7 +11724,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11815,7 +11736,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11823,7 +11744,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11919,7 +11840,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11962,7 +11883,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12289,7 +12210,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12305,7 +12226,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12321,7 +12242,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12337,7 +12258,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12353,7 +12274,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12368,9 +12289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12378,7 +12297,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12389,7 +12308,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12398,7 +12317,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12410,7 +12329,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12514,7 +12433,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12557,7 +12476,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12884,7 +12803,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12900,7 +12819,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12916,7 +12835,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12932,7 +12851,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12948,7 +12867,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12963,9 +12882,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12973,7 +12890,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12984,7 +12901,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12993,7 +12910,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13005,7 +12922,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13013,7 +12930,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13109,7 +13026,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13152,7 +13069,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13479,7 +13396,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13495,7 +13412,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13511,7 +13428,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13527,7 +13444,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13543,7 +13460,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13558,9 +13475,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13568,7 +13483,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13579,7 +13494,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13588,7 +13503,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13600,7 +13515,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13608,7 +13523,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13704,7 +13619,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13747,7 +13662,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14074,7 +13989,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14090,7 +14005,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14106,7 +14021,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14122,7 +14037,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14138,7 +14053,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14153,9 +14068,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14163,7 +14076,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14174,7 +14087,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14183,7 +14096,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14195,7 +14108,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14203,7 +14116,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14299,7 +14212,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14342,7 +14255,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14669,7 +14582,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14685,7 +14598,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14701,7 +14614,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14717,7 +14630,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14733,7 +14646,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14748,9 +14661,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14758,7 +14669,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14769,7 +14680,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14778,7 +14689,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14790,7 +14701,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14798,7 +14709,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14894,7 +14805,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14937,7 +14848,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15264,7 +15175,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15280,7 +15191,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15296,7 +15207,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15312,7 +15223,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15328,7 +15239,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15343,9 +15254,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15353,7 +15262,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15364,7 +15273,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15373,7 +15282,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15385,7 +15294,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15393,7 +15302,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15489,7 +15398,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15532,7 +15441,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15859,7 +15768,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15875,7 +15784,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15891,7 +15800,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15907,7 +15816,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15923,7 +15832,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15938,9 +15847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15948,7 +15855,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15959,7 +15866,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15968,7 +15875,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15980,7 +15887,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15988,7 +15895,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16084,7 +15991,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16127,7 +16034,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16510,7 +16417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16526,7 +16433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16542,7 +16449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16558,7 +16465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16574,7 +16481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16589,9 +16496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16599,7 +16504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16610,7 +16515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16619,7 +16524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16631,7 +16536,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16639,7 +16544,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16735,7 +16640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16778,7 +16683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17105,7 +17010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17121,7 +17026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17137,7 +17042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17153,7 +17058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17169,7 +17074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17184,9 +17089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17194,7 +17097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17205,7 +17108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17214,7 +17117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17226,7 +17129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17234,7 +17137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17330,7 +17233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17373,7 +17276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17700,7 +17603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17716,7 +17619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17732,7 +17635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17748,7 +17651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17764,7 +17667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17779,9 +17682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17789,7 +17690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17800,7 +17701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17809,7 +17710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17821,7 +17722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17829,7 +17730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17925,7 +17826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17968,7 +17869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18295,7 +18196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18311,7 +18212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18327,7 +18228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18343,7 +18244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18359,7 +18260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18374,9 +18275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18384,7 +18283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18395,7 +18294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18404,7 +18303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18416,7 +18315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18520,7 +18419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18563,7 +18462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18890,7 +18789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18906,7 +18805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18922,7 +18821,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18938,7 +18837,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18954,7 +18853,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18969,9 +18868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18979,7 +18876,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18990,7 +18887,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18999,7 +18896,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19011,7 +18908,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19019,7 +18916,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19115,7 +19012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19158,7 +19055,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19485,7 +19382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19501,7 +19398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19517,7 +19414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19533,7 +19430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19549,7 +19446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19564,9 +19461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19574,7 +19469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19585,7 +19480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19594,7 +19489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19606,7 +19501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19614,7 +19509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19710,7 +19605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19753,7 +19648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
